--- a/Nado Game/pyqt5/자재관리/사용대장.xlsx
+++ b/Nado Game/pyqt5/자재관리/사용대장.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source\pygame\Nado Game\pyqt5\자재관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pygame\Nado Game\pyqt5\자재관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5A31595-ED6B-4568-B83F-2CDAD14200F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31A28B5-D332-43B1-AE9E-18ABBE53D08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="4980" windowWidth="18990" windowHeight="14280" xr2:uid="{33746BDE-84F1-4B14-B48D-C80B15739E68}"/>
+    <workbookView xWindow="43545" yWindow="660" windowWidth="12075" windowHeight="13230" xr2:uid="{33746BDE-84F1-4B14-B48D-C80B15739E68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,46 +32,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>items</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+  <si>
+    <t>사용일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spec</t>
+    <t>품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Qty</t>
+    <t>규격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unit_price</t>
+    <t>사용수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>remarks</t>
+    <t>단가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stock</t>
+    <t>재고수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>out_date</t>
+    <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bldg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>privatePublic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>국가유공 할인</t>
+  </si>
+  <si>
+    <t>다자녀 할인</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>3816</t>
+  </si>
+  <si>
+    <t>박하사탕 사려 가요</t>
+  </si>
+  <si>
+    <t>2022-05-21</t>
+  </si>
+  <si>
+    <t>품목 추가 시험 입력</t>
+  </si>
+  <si>
+    <t>규격추가 시험 입력</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>LED 전구</t>
+  </si>
+  <si>
+    <t>11w</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -117,10 +150,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -435,48 +469,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0248C50D-0820-47DC-B8F8-3BDFC0D2CE13}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Nado Game/pyqt5/자재관리/사용대장.xlsx
+++ b/Nado Game/pyqt5/자재관리/사용대장.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pygame\Nado Game\pyqt5\자재관리\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A27910C-8D5C-47E1-B460-C324DD4DFA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="44190" yWindow="2370" windowWidth="12075" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>사용일</t>
   </si>
@@ -49,51 +43,102 @@
     <t>2022-05-21</t>
   </si>
   <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-05-19</t>
+  </si>
+  <si>
     <t>501</t>
   </si>
   <si>
+    <t>507</t>
+  </si>
+  <si>
     <t>504</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>공용</t>
   </si>
   <si>
+    <t>세대</t>
+  </si>
+  <si>
     <t>LED 전구</t>
   </si>
   <si>
+    <t>LED 전등</t>
+  </si>
+  <si>
+    <t>할로겐 등</t>
+  </si>
+  <si>
+    <t>백열등</t>
+  </si>
+  <si>
     <t>11w</t>
   </si>
   <si>
+    <t>센서등 13w</t>
+  </si>
+  <si>
+    <t>할로겐 50W 안정기</t>
+  </si>
+  <si>
+    <t>IL 60W</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -139,18 +184,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -438,16 +475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,35 +508,293 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Nado Game/pyqt5/자재관리/사용대장.xlsx
+++ b/Nado Game/pyqt5/자재관리/사용대장.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source\pygame\Nado Game\pyqt5\자재관리\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48139A2-0807-4E18-9267-62D29EA118E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="8370" yWindow="1320" windowWidth="18990" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
   <si>
     <t>사용일</t>
   </si>
@@ -119,17 +125,21 @@
   </si>
   <si>
     <t>111</t>
+  </si>
+  <si>
+    <t>품목누계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -137,8 +147,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -184,15 +201,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -234,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +291,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +343,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,14 +536,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,10 +571,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -531,10 +600,13 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -557,10 +629,13 @@
         <v>30</v>
       </c>
       <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -583,10 +658,13 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -609,10 +687,13 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -635,10 +716,13 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -661,10 +745,13 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -687,10 +774,13 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -713,10 +803,13 @@
         <v>31</v>
       </c>
       <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -739,10 +832,13 @@
         <v>31</v>
       </c>
       <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -765,10 +861,13 @@
         <v>31</v>
       </c>
       <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -791,10 +890,15 @@
         <v>31</v>
       </c>
       <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Nado Game/pyqt5/자재관리/사용대장.xlsx
+++ b/Nado Game/pyqt5/자재관리/사용대장.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source\pygame\Nado Game\pyqt5\자재관리\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48139A2-0807-4E18-9267-62D29EA118E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="1320" windowWidth="18990" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
-  <si>
-    <t>사용일</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>일자</t>
+  </si>
+  <si>
+    <t>시간</t>
   </si>
   <si>
     <t>동</t>
@@ -31,7 +31,7 @@
     <t>호</t>
   </si>
   <si>
-    <t>구분</t>
+    <t>공용</t>
   </si>
   <si>
     <t>품명</t>
@@ -40,12 +40,6 @@
     <t>규격</t>
   </si>
   <si>
-    <t>사용수량</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
     <t>2022-05-21</t>
   </si>
   <si>
@@ -64,6 +58,9 @@
     <t>2022-05-19</t>
   </si>
   <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
     <t>501</t>
   </si>
   <si>
@@ -82,7 +79,7 @@
     <t>101</t>
   </si>
   <si>
-    <t>공용</t>
+    <t>10층</t>
   </si>
   <si>
     <t>세대</t>
@@ -112,34 +109,27 @@
     <t>IL 60W</t>
   </si>
   <si>
+    <t>65w</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>**</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>품목누계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -147,15 +137,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,23 +184,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -259,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,27 +266,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,24 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,19 +475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,334 +505,315 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
         <v>31</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="I12" t="s">
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Nado Game/pyqt5/자재관리/사용대장.xlsx
+++ b/Nado Game/pyqt5/자재관리/사용대장.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pygame\Nado Game\pyqt5\자재관리\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B3593-8098-4A9E-8806-5675DEEDFE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
-  <si>
-    <t>구분</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t>일자</t>
   </si>
   <si>
-    <t>시간</t>
-  </si>
-  <si>
     <t>동</t>
   </si>
   <si>
@@ -119,17 +119,25 @@
   </si>
   <si>
     <t>**</t>
+  </si>
+  <si>
+    <t>사용수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -137,8 +145,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,26 +188,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -234,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,14 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H2:H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,318 +577,353 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Nado Game/pyqt5/자재관리/사용대장.xlsx
+++ b/Nado Game/pyqt5/자재관리/사용대장.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pygame\Nado Game\pyqt5\자재관리\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B3593-8098-4A9E-8806-5675DEEDFE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
   <si>
     <t>일자</t>
   </si>
@@ -40,6 +34,12 @@
     <t>규격</t>
   </si>
   <si>
+    <t>사용수량</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
     <t>2022-05-21</t>
   </si>
   <si>
@@ -61,12 +61,18 @@
     <t>2022-05-30</t>
   </si>
   <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
     <t>501</t>
   </si>
   <si>
     <t>507</t>
   </si>
   <si>
+    <t>502</t>
+  </si>
+  <si>
     <t>504</t>
   </si>
   <si>
@@ -82,6 +88,12 @@
     <t>10층</t>
   </si>
   <si>
+    <t>11층</t>
+  </si>
+  <si>
+    <t>1L-B1</t>
+  </si>
+  <si>
     <t>세대</t>
   </si>
   <si>
@@ -97,6 +109,12 @@
     <t>백열등</t>
   </si>
   <si>
+    <t>가스</t>
+  </si>
+  <si>
+    <t>동 현관 자동문</t>
+  </si>
+  <si>
     <t>11w</t>
   </si>
   <si>
@@ -112,6 +130,12 @@
     <t>65w</t>
   </si>
   <si>
+    <t>가스탐지기</t>
+  </si>
+  <si>
+    <t>하부 롤러</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -119,25 +143,17 @@
   </si>
   <si>
     <t>**</t>
-  </si>
-  <si>
-    <t>사용수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -145,15 +161,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -165,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,48 +197,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -271,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,27 +290,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,24 +324,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,16 +499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H2:H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,353 +526,429 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Nado Game/pyqt5/자재관리/사용대장.xlsx
+++ b/Nado Game/pyqt5/자재관리/사용대장.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
   <si>
     <t>일자</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2022-05-31</t>
   </si>
   <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
     <t>501</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>**</t>
+  </si>
+  <si>
+    <t>계단 복도등</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,25 +543,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -563,25 +569,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -589,25 +595,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -615,25 +621,25 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -641,25 +647,25 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -667,25 +673,25 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -693,25 +699,25 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -719,25 +725,25 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -745,25 +751,25 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -771,25 +777,25 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -797,25 +803,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -823,25 +829,25 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -849,25 +855,25 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -875,25 +881,25 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -901,25 +907,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -927,25 +933,51 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
         <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Nado Game/pyqt5/자재관리/사용대장.xlsx
+++ b/Nado Game/pyqt5/자재관리/사용대장.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="48">
   <si>
     <t>일자</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2022-06-02</t>
   </si>
   <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
     <t>501</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>1L-B1</t>
   </si>
   <si>
+    <t>8층</t>
+  </si>
+  <si>
     <t>세대</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
   </si>
   <si>
     <t>계단 복도등</t>
+  </si>
+  <si>
+    <t>현관등</t>
   </si>
 </sst>
 </file>
@@ -506,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,25 +552,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -569,25 +578,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -595,25 +604,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -621,25 +630,25 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -647,25 +656,25 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -673,25 +682,25 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -699,25 +708,25 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -725,25 +734,25 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -751,25 +760,25 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -777,25 +786,25 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -803,25 +812,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -829,25 +838,25 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -855,25 +864,25 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -881,25 +890,25 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -907,25 +916,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -933,25 +942,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -959,25 +968,77 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s">
-        <v>44</v>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
